--- a/data/trans_camb/P26-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P26-Dificultad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.812612653625247</v>
+        <v>5.049797542952827</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.7073766045530844</v>
+        <v>-0.07792044998382455</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-16.06165796838412</v>
+        <v>-16.39722941041356</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.590477576669244</v>
+        <v>2.24810134450843</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-9.827724240402986</v>
+        <v>-9.996083229840085</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-24.74872509417295</v>
+        <v>-24.76189526852394</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>3.848543537739396</v>
+        <v>3.796286916869552</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-4.887609876761402</v>
+        <v>-5.097373593342594</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-20.3244170051996</v>
+        <v>-19.87521634687442</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.28255342641016</v>
+        <v>14.48804940392481</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.9056547063834</v>
+        <v>9.151653602606816</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-4.585439733235753</v>
+        <v>-4.64366932022567</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.8439629681936</v>
+        <v>11.39033066248146</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-1.256048900711733</v>
+        <v>-0.84393214551239</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-16.07986343442311</v>
+        <v>-15.92852008216568</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>10.43598492446048</v>
+        <v>10.18570339641919</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.730102520919574</v>
+        <v>1.69182943222719</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-12.96956374004951</v>
+        <v>-12.52841697721424</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.04690909088610491</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.4950252212003943</v>
+        <v>-0.4950252212003942</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1563808874329249</v>
+        <v>0.1653087277033404</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.02410417363788878</v>
+        <v>-0.002471217219202281</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5319438175260847</v>
+        <v>-0.5432732496487511</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.04009205867064226</v>
+        <v>0.05613902918930701</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2501518485206025</v>
+        <v>-0.2527704226830689</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6347943309778409</v>
+        <v>-0.6332213517873432</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1095434581341945</v>
+        <v>0.1067957319490555</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1388656558366801</v>
+        <v>-0.1453323483486846</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.5746048836248595</v>
+        <v>-0.5696740238793849</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.5731086792053559</v>
+        <v>0.5898215750263347</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3615448892584883</v>
+        <v>0.3813831984842794</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.1687951719820493</v>
+        <v>-0.1680596731526369</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.310648243687546</v>
+        <v>0.3293399178396989</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.03688928129521495</v>
+        <v>-0.02815351930456001</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.4549493955106265</v>
+        <v>-0.4482235309791924</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3340748244434821</v>
+        <v>0.3243223120251676</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.05516052263579681</v>
+        <v>0.05444377879246477</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.4009020628267975</v>
+        <v>-0.3968136883969967</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.143375196341971</v>
+        <v>0.4849874348974611</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.809274633590041</v>
+        <v>-7.217107228046969</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-23.14781316369311</v>
+        <v>-22.91010040577987</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.350276989025879</v>
+        <v>-0.9187169578912138</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-15.70195143988006</v>
+        <v>-15.50525141190165</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-29.30978871008833</v>
+        <v>-29.47822322682797</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.122954928473579</v>
+        <v>1.21416423854421</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-9.807242275819934</v>
+        <v>-9.916648417351256</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-24.94235496733152</v>
+        <v>-24.79535103316577</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.163513481707341</v>
+        <v>9.421866410253333</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.289068392292663</v>
+        <v>1.390289241000091</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-16.02020486806307</v>
+        <v>-15.59757250998339</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.680372510230216</v>
+        <v>7.387996412555421</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-7.03368037861955</v>
+        <v>-6.885940824257627</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-21.63395484861445</v>
+        <v>-21.92336300673823</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>7.507503142369183</v>
+        <v>7.70850932095702</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-4.091054288004272</v>
+        <v>-3.861552079079689</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-19.64507830894598</v>
+        <v>-19.43677407536932</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.03876800732399277</v>
+        <v>0.009434804303606194</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2294685200452946</v>
+        <v>-0.2407947865885714</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.7777836075628668</v>
+        <v>-0.7762665711868203</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.03340404403047675</v>
+        <v>-0.02166450321776105</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.385205170753226</v>
+        <v>-0.3789880563872159</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.714632780298609</v>
+        <v>-0.7172249072968673</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03180853173639829</v>
+        <v>0.03609323943210492</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2830324401445807</v>
+        <v>-0.2855721034315484</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.7154031069393902</v>
+        <v>-0.7157369190029196</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3492941831575628</v>
+        <v>0.3581835345571489</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.04974263865968451</v>
+        <v>0.05325520941843769</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.5985573394396668</v>
+        <v>-0.5848835266164272</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2143123166597281</v>
+        <v>0.202869590051168</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1874722578774017</v>
+        <v>-0.1834207807469538</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.5931302720174304</v>
+        <v>-0.598705954726356</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2373563695361735</v>
+        <v>0.245129282228586</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1258263691989503</v>
+        <v>-0.1238128914997418</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.6162218720356507</v>
+        <v>-0.6148764918739515</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.871816565310207</v>
+        <v>-5.917806231084686</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-16.91832462805983</v>
+        <v>-16.60257714245664</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-23.79927231383475</v>
+        <v>-23.94750881047057</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-9.256140797004289</v>
+        <v>-9.089747267531358</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-23.08111808064891</v>
+        <v>-22.52197835612718</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-27.63043334192564</v>
+        <v>-27.63921355980844</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-6.331857757095081</v>
+        <v>-6.099182634147512</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-18.28933918188451</v>
+        <v>-18.41118591857961</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-24.38102422301716</v>
+        <v>-24.34147995735347</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.715144620648235</v>
+        <v>2.977586271135593</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-8.404814188490896</v>
+        <v>-8.624979306605947</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-16.13815752383364</v>
+        <v>-16.31399880583356</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-0.177513012690481</v>
+        <v>-0.2018929639303202</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-14.28002471449533</v>
+        <v>-14.19824367595032</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-20.15857062751721</v>
+        <v>-20.19536062755827</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-0.05831239167491847</v>
+        <v>-0.1526376271773484</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-12.41340212699837</v>
+        <v>-12.15099016628241</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-18.99457535275991</v>
+        <v>-18.95834376136222</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1823996660204818</v>
+        <v>-0.1841974631856009</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5138117359332437</v>
+        <v>-0.5089619364114367</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.7340042367018071</v>
+        <v>-0.7393516810422975</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2377236039957339</v>
+        <v>-0.2315338716938864</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5799058936119621</v>
+        <v>-0.575857882354266</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.703556528734577</v>
+        <v>-0.7027839373761207</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1805167608196736</v>
+        <v>-0.1734462049583722</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5235068433182323</v>
+        <v>-0.5287573447857793</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.7019421231773738</v>
+        <v>-0.6938648716457901</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.09290666725993697</v>
+        <v>0.1024416826701953</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.2930009433121185</v>
+        <v>-0.2966739873935733</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.5591651864159127</v>
+        <v>-0.5669340543751248</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.004502541899805435</v>
+        <v>-0.005860544129626135</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.4031179308011489</v>
+        <v>-0.4001817143387434</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.5711750503235905</v>
+        <v>-0.5723482333714115</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.001657336057632481</v>
+        <v>-0.004693010118898376</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.3856852834343663</v>
+        <v>-0.3781989857118282</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.5910577490846374</v>
+        <v>-0.5917544869003489</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.701533404437516</v>
+        <v>-2.631389740017102</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-11.83315019790702</v>
+        <v>-11.57408720012904</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-19.82871646222336</v>
+        <v>-20.28931304084226</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-8.872371472537804</v>
+        <v>-8.52616212118315</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-14.96566581000737</v>
+        <v>-14.40646106159636</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-26.07623069022722</v>
+        <v>-26.72706532287426</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-3.242736364922724</v>
+        <v>-3.016275187664256</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-10.9479746914155</v>
+        <v>-10.63251191043448</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-20.84396491893945</v>
+        <v>-21.26709990501806</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.58927026349946</v>
+        <v>10.96483501556213</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.139843951357625</v>
+        <v>0.4057101949803387</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-9.937388896709606</v>
+        <v>-10.22569559538383</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.570269552443162</v>
+        <v>5.435352989339728</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-1.597491277105351</v>
+        <v>-0.6968178284819574</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-14.72622954793014</v>
+        <v>-15.41212886278092</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>6.269303662629831</v>
+        <v>6.410308342557953</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-2.201142567858983</v>
+        <v>-1.99124793339543</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-13.26350524570758</v>
+        <v>-13.57040802632068</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.05881025616700563</v>
+        <v>-0.08385057168769029</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3893249976777028</v>
+        <v>-0.3794113241325349</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.6551782121106963</v>
+        <v>-0.6701263318049998</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2369772963431742</v>
+        <v>-0.2396533820350096</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4067537392875859</v>
+        <v>-0.3826183247265943</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.6926294011465112</v>
+        <v>-0.7016041951431973</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1036241201478052</v>
+        <v>-0.09445572393717469</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3387960113047822</v>
+        <v>-0.3247273676352908</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.6451119145396736</v>
+        <v>-0.6439431331416604</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.4398404145671361</v>
+        <v>0.4551433659499307</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.002301759443425834</v>
+        <v>0.02070756167192725</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.4115679425624849</v>
+        <v>-0.4185158561120113</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1564527310082321</v>
+        <v>0.1821046257286467</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.05136444855051673</v>
+        <v>-0.016974999785699</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.5133631489715409</v>
+        <v>-0.5212925362776438</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.228093257182949</v>
+        <v>0.2263942063882115</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.08258519290281842</v>
+        <v>-0.07057533211791768</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.4946792412490546</v>
+        <v>-0.5020226251950626</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>-6.989579118236621</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-20.49767640725803</v>
+        <v>-20.49767640725802</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.954998141181066</v>
+        <v>1.96269452977008</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-5.582884837216689</v>
+        <v>-5.487073680212458</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-19.46266610098234</v>
+        <v>-20.10048061001803</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.9235482952672803</v>
+        <v>-1.024290499660973</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-12.95597063489993</v>
+        <v>-13.06935484945081</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-25.67070907784959</v>
+        <v>-25.53668579845627</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>1.219726485309076</v>
+        <v>1.254163579365899</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-8.601468491527701</v>
+        <v>-8.537620434039756</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-21.85137234859948</v>
+        <v>-21.9830637277304</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>6.75792948920876</v>
+        <v>6.71451085458582</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-1.144051264582937</v>
+        <v>-1.015515589668652</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-15.08392755129769</v>
+        <v>-15.37663953841185</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.03710844017986</v>
+        <v>3.971501545083965</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-8.255255443085485</v>
+        <v>-8.29152342883074</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-21.56181061824536</v>
+        <v>-21.5390682556003</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>4.593804914263446</v>
+        <v>4.670538618895064</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-5.295672296965765</v>
+        <v>-5.425055271981213</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-18.89215282423636</v>
+        <v>-18.90412977637512</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>-0.2117661742033305</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.6210265939328842</v>
+        <v>-0.621026593932884</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.06594564626828596</v>
+        <v>0.06508440365698519</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1862428672554149</v>
+        <v>-0.1848068215966399</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.6573725349766351</v>
+        <v>-0.6678414355602049</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.02399893513953633</v>
+        <v>-0.02777681801932297</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3359925669370853</v>
+        <v>-0.3359724967653339</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.6656103983995345</v>
+        <v>-0.6639334115319674</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0372095750406984</v>
+        <v>0.03723354688787644</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2554818680973724</v>
+        <v>-0.2528752960352232</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.6456817034911342</v>
+        <v>-0.6519658203897396</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.245735910417469</v>
+        <v>0.2443643483202702</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.04221392153962237</v>
+        <v>-0.03621102656751508</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.5534696439033382</v>
+        <v>-0.5577788346254807</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1123705354728909</v>
+        <v>0.1091390822759532</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.2299591075149925</v>
+        <v>-0.2279811925996864</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.5983581758474328</v>
+        <v>-0.5975964581495773</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1465682048469049</v>
+        <v>0.1438018979190175</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.1664543480266861</v>
+        <v>-0.1677675010403014</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.5882766897255495</v>
+        <v>-0.5890372424002309</v>
       </c>
     </row>
     <row r="34">
